--- a/contratos/contratos-7-2013.xlsx
+++ b/contratos/contratos-7-2013.xlsx
@@ -721,7 +721,7 @@
     <t>PEREZ DANIEL RUBEN</t>
   </si>
   <si>
-    <t>RAMIREZ CLAUDIA, RAMIREZ CESAR Y RAMIREZ VERONICA S.H.</t>
+    <t>RAMIREZ CLAUDIA. RAMIREZ CESAR Y RAMIREZ VERONICA SH</t>
   </si>
   <si>
     <t>TOMBA HERMANOS S.R.L.</t>
@@ -826,16 +826,16 @@
     <t>ELECTRONICA MEGATONE S.A.</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>OLIVERA JOSE PEDRO</t>
@@ -871,7 +871,7 @@
     <t>METRALLE GRISELDA BEATRIZ</t>
   </si>
   <si>
-    <t>TRABICHET MARIA, VERGARA ADEL Y OTRA</t>
+    <t>TRABICHET MARIA. VERGARA ADEL Y OTRA</t>
   </si>
   <si>
     <t>BURGOS DANIEL RAUL</t>
@@ -886,7 +886,7 @@
     <t>ORGANIZACION DELASOIE HNOS. S.A.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>LANZA RICARDO RAUL</t>
@@ -976,7 +976,7 @@
     <t>ARDETI GUSTAVO EMANUEL</t>
   </si>
   <si>
-    <t>DODERA, JORGE ABELARDO</t>
+    <t>DODERA. JORGE ABELARDO</t>
   </si>
   <si>
     <t>BOGATIC FLAVIO ADOLFO</t>
@@ -985,7 +985,7 @@
     <t>CENTINELA S.R.L.</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>GROSJEAN LAURA INES</t>
@@ -1225,7 +1225,7 @@
     <t>GENESIS</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>MFZ</t>
@@ -1402,676 +1402,676 @@
     <t>60</t>
   </si>
   <si>
-    <t>3.398,50</t>
-  </si>
-  <si>
-    <t>35.400,00</t>
-  </si>
-  <si>
-    <t>2.350,00</t>
-  </si>
-  <si>
-    <t>853,98</t>
-  </si>
-  <si>
-    <t>9.750,00</t>
-  </si>
-  <si>
-    <t>35.980,88</t>
-  </si>
-  <si>
-    <t>199.500,00</t>
-  </si>
-  <si>
-    <t>119.000,00</t>
-  </si>
-  <si>
-    <t>1.509,70</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>1.682,20</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>108.351,10</t>
-  </si>
-  <si>
-    <t>107.242,98</t>
-  </si>
-  <si>
-    <t>6.530,00</t>
-  </si>
-  <si>
-    <t>1.124,20</t>
-  </si>
-  <si>
-    <t>60.722,63</t>
-  </si>
-  <si>
-    <t>3.521,13</t>
-  </si>
-  <si>
-    <t>2.789,89</t>
-  </si>
-  <si>
-    <t>9.139,23</t>
-  </si>
-  <si>
-    <t>14.232,10</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>99,28</t>
-  </si>
-  <si>
-    <t>1.810,00</t>
-  </si>
-  <si>
-    <t>13,80</t>
-  </si>
-  <si>
-    <t>22.100,00</t>
-  </si>
-  <si>
-    <t>29.775,56</t>
-  </si>
-  <si>
-    <t>26,48</t>
-  </si>
-  <si>
-    <t>174,50</t>
-  </si>
-  <si>
-    <t>4.201,94</t>
-  </si>
-  <si>
-    <t>100,05</t>
-  </si>
-  <si>
-    <t>3.524,00</t>
-  </si>
-  <si>
-    <t>10.400,00</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>12,80</t>
-  </si>
-  <si>
-    <t>255,25</t>
-  </si>
-  <si>
-    <t>12.767,90</t>
-  </si>
-  <si>
-    <t>15.600,00</t>
-  </si>
-  <si>
-    <t>521,61</t>
-  </si>
-  <si>
-    <t>734,13</t>
-  </si>
-  <si>
-    <t>590,00</t>
-  </si>
-  <si>
-    <t>175,00</t>
-  </si>
-  <si>
-    <t>150.983,41</t>
-  </si>
-  <si>
-    <t>2.321,85</t>
-  </si>
-  <si>
-    <t>279,00</t>
-  </si>
-  <si>
-    <t>838,60</t>
-  </si>
-  <si>
-    <t>2.780,83</t>
-  </si>
-  <si>
-    <t>1.120,00</t>
-  </si>
-  <si>
-    <t>2.220,44</t>
-  </si>
-  <si>
-    <t>21,30</t>
-  </si>
-  <si>
-    <t>5.660,81</t>
-  </si>
-  <si>
-    <t>26.054,28</t>
-  </si>
-  <si>
-    <t>39,37</t>
-  </si>
-  <si>
-    <t>1.360,00</t>
-  </si>
-  <si>
-    <t>1.458,12</t>
-  </si>
-  <si>
-    <t>948,00</t>
-  </si>
-  <si>
-    <t>4.337,00</t>
-  </si>
-  <si>
-    <t>469,00</t>
-  </si>
-  <si>
-    <t>21.736,00</t>
-  </si>
-  <si>
-    <t>72,00</t>
-  </si>
-  <si>
-    <t>2.914,80</t>
-  </si>
-  <si>
-    <t>731,36</t>
-  </si>
-  <si>
-    <t>1.181,75</t>
-  </si>
-  <si>
-    <t>101.065,22</t>
-  </si>
-  <si>
-    <t>2.674,00</t>
-  </si>
-  <si>
-    <t>1.991,69</t>
-  </si>
-  <si>
-    <t>975,00</t>
-  </si>
-  <si>
-    <t>399,00</t>
-  </si>
-  <si>
-    <t>596,03</t>
-  </si>
-  <si>
-    <t>2.714,00</t>
-  </si>
-  <si>
-    <t>2.867,01</t>
-  </si>
-  <si>
-    <t>9.697,00</t>
-  </si>
-  <si>
-    <t>16.667,00</t>
-  </si>
-  <si>
-    <t>1.796,80</t>
-  </si>
-  <si>
-    <t>465,00</t>
-  </si>
-  <si>
-    <t>960,00</t>
-  </si>
-  <si>
-    <t>75,00</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>11.900,00</t>
-  </si>
-  <si>
-    <t>440,00</t>
-  </si>
-  <si>
-    <t>2.176,80</t>
-  </si>
-  <si>
-    <t>2.239,00</t>
-  </si>
-  <si>
-    <t>249,00</t>
-  </si>
-  <si>
-    <t>1.205,00</t>
-  </si>
-  <si>
-    <t>320,00</t>
-  </si>
-  <si>
-    <t>195,33</t>
-  </si>
-  <si>
-    <t>6.065,00</t>
-  </si>
-  <si>
-    <t>386,65</t>
-  </si>
-  <si>
-    <t>545,08</t>
-  </si>
-  <si>
-    <t>1.309,00</t>
-  </si>
-  <si>
-    <t>168,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>165,00</t>
-  </si>
-  <si>
-    <t>310,00</t>
-  </si>
-  <si>
-    <t>608,40</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>116.893,20</t>
-  </si>
-  <si>
-    <t>3,12</t>
-  </si>
-  <si>
-    <t>116,16</t>
-  </si>
-  <si>
-    <t>52,15</t>
-  </si>
-  <si>
-    <t>124,14</t>
-  </si>
-  <si>
-    <t>690,00</t>
-  </si>
-  <si>
-    <t>6.045,09</t>
-  </si>
-  <si>
-    <t>489,59</t>
-  </si>
-  <si>
-    <t>29.250,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>4.895,69</t>
-  </si>
-  <si>
-    <t>3.861,50</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>875,00</t>
-  </si>
-  <si>
-    <t>517,50</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>220,80</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>436,50</t>
-  </si>
-  <si>
-    <t>1.148,05</t>
-  </si>
-  <si>
-    <t>779,00</t>
-  </si>
-  <si>
-    <t>20,67</t>
-  </si>
-  <si>
-    <t>4.677,20</t>
-  </si>
-  <si>
-    <t>4.895,08</t>
-  </si>
-  <si>
-    <t>568,00</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>3.014,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>2.375,00</t>
-  </si>
-  <si>
-    <t>760,00</t>
-  </si>
-  <si>
-    <t>2.926,50</t>
-  </si>
-  <si>
-    <t>6.080,00</t>
-  </si>
-  <si>
-    <t>5.800,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>4.300,00</t>
-  </si>
-  <si>
-    <t>5.350,00</t>
-  </si>
-  <si>
-    <t>3.609,90</t>
-  </si>
-  <si>
-    <t>1.332,25</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>635,00</t>
-  </si>
-  <si>
-    <t>33,00</t>
-  </si>
-  <si>
-    <t>4.951,00</t>
-  </si>
-  <si>
-    <t>292,68</t>
-  </si>
-  <si>
-    <t>134.800,00</t>
-  </si>
-  <si>
-    <t>2.535,00</t>
-  </si>
-  <si>
-    <t>28,00</t>
-  </si>
-  <si>
-    <t>132.810,00</t>
-  </si>
-  <si>
-    <t>5.430,00</t>
-  </si>
-  <si>
-    <t>6.806,25</t>
-  </si>
-  <si>
-    <t>384,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>10.588,50</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>2.550,79</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>9.440,00</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>560,00</t>
-  </si>
-  <si>
-    <t>2.363,00</t>
-  </si>
-  <si>
-    <t>2.030,00</t>
-  </si>
-  <si>
-    <t>174,59</t>
-  </si>
-  <si>
-    <t>2.577,96</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>137,20</t>
-  </si>
-  <si>
-    <t>1.468,00</t>
-  </si>
-  <si>
-    <t>2.770,00</t>
-  </si>
-  <si>
-    <t>597,00</t>
-  </si>
-  <si>
-    <t>770,00</t>
-  </si>
-  <si>
-    <t>244,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>5.128,00</t>
-  </si>
-  <si>
-    <t>54.246,92</t>
-  </si>
-  <si>
-    <t>1.301,89</t>
-  </si>
-  <si>
-    <t>1.464,00</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>4.792,00</t>
-  </si>
-  <si>
-    <t>9.005,00</t>
-  </si>
-  <si>
-    <t>270,00</t>
-  </si>
-  <si>
-    <t>22,80</t>
-  </si>
-  <si>
-    <t>1.956,00</t>
-  </si>
-  <si>
-    <t>2.160,00</t>
-  </si>
-  <si>
-    <t>145,25</t>
-  </si>
-  <si>
-    <t>36.885,52</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>1.085,00</t>
-  </si>
-  <si>
-    <t>825,00</t>
-  </si>
-  <si>
-    <t>1.083,60</t>
-  </si>
-  <si>
-    <t>1.642,55</t>
-  </si>
-  <si>
-    <t>516,00</t>
-  </si>
-  <si>
-    <t>4.264,30</t>
-  </si>
-  <si>
-    <t>87,05</t>
-  </si>
-  <si>
-    <t>3.475,88</t>
-  </si>
-  <si>
-    <t>3.563,01</t>
-  </si>
-  <si>
-    <t>6.851,02</t>
-  </si>
-  <si>
-    <t>58.312,00</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>651.206,16</t>
-  </si>
-  <si>
-    <t>2.080,00</t>
-  </si>
-  <si>
-    <t>148.986,00</t>
-  </si>
-  <si>
-    <t>2.323,00</t>
-  </si>
-  <si>
-    <t>1.390,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>790,00</t>
-  </si>
-  <si>
-    <t>182.500,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>83.000,00</t>
-  </si>
-  <si>
-    <t>112.500,00</t>
-  </si>
-  <si>
-    <t>75.000,00</t>
-  </si>
-  <si>
-    <t>223.000,00</t>
-  </si>
-  <si>
-    <t>111.500,00</t>
-  </si>
-  <si>
-    <t>257.911,50</t>
-  </si>
-  <si>
-    <t>6.681,19</t>
-  </si>
-  <si>
-    <t>515.426,36</t>
-  </si>
-  <si>
-    <t>32.530,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>1.185,62</t>
-  </si>
-  <si>
-    <t>158,34</t>
-  </si>
-  <si>
-    <t>3.214,00</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>6.700,00</t>
-  </si>
-  <si>
-    <t>135.000,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>645,00</t>
-  </si>
-  <si>
-    <t>145,00</t>
+    <t>3398.50</t>
+  </si>
+  <si>
+    <t>35400.00</t>
+  </si>
+  <si>
+    <t>2350.00</t>
+  </si>
+  <si>
+    <t>853.98</t>
+  </si>
+  <si>
+    <t>9750.00</t>
+  </si>
+  <si>
+    <t>35980.88</t>
+  </si>
+  <si>
+    <t>199500.00</t>
+  </si>
+  <si>
+    <t>119000.00</t>
+  </si>
+  <si>
+    <t>1509.70</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>1682.20</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>108351.10</t>
+  </si>
+  <si>
+    <t>107242.98</t>
+  </si>
+  <si>
+    <t>6530.00</t>
+  </si>
+  <si>
+    <t>1124.20</t>
+  </si>
+  <si>
+    <t>60722.63</t>
+  </si>
+  <si>
+    <t>3521.13</t>
+  </si>
+  <si>
+    <t>2789.89</t>
+  </si>
+  <si>
+    <t>9139.23</t>
+  </si>
+  <si>
+    <t>14232.10</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>99.28</t>
+  </si>
+  <si>
+    <t>1810.00</t>
+  </si>
+  <si>
+    <t>13.80</t>
+  </si>
+  <si>
+    <t>22100.00</t>
+  </si>
+  <si>
+    <t>29775.56</t>
+  </si>
+  <si>
+    <t>26.48</t>
+  </si>
+  <si>
+    <t>174.50</t>
+  </si>
+  <si>
+    <t>4201.94</t>
+  </si>
+  <si>
+    <t>100.05</t>
+  </si>
+  <si>
+    <t>3524.00</t>
+  </si>
+  <si>
+    <t>10400.00</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>12.80</t>
+  </si>
+  <si>
+    <t>255.25</t>
+  </si>
+  <si>
+    <t>12767.90</t>
+  </si>
+  <si>
+    <t>15600.00</t>
+  </si>
+  <si>
+    <t>521.61</t>
+  </si>
+  <si>
+    <t>734.13</t>
+  </si>
+  <si>
+    <t>590.00</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>150983.41</t>
+  </si>
+  <si>
+    <t>2321.85</t>
+  </si>
+  <si>
+    <t>279.00</t>
+  </si>
+  <si>
+    <t>838.60</t>
+  </si>
+  <si>
+    <t>2780.83</t>
+  </si>
+  <si>
+    <t>1120.00</t>
+  </si>
+  <si>
+    <t>2220.44</t>
+  </si>
+  <si>
+    <t>21.30</t>
+  </si>
+  <si>
+    <t>5660.81</t>
+  </si>
+  <si>
+    <t>26054.28</t>
+  </si>
+  <si>
+    <t>39.37</t>
+  </si>
+  <si>
+    <t>1360.00</t>
+  </si>
+  <si>
+    <t>1458.12</t>
+  </si>
+  <si>
+    <t>948.00</t>
+  </si>
+  <si>
+    <t>4337.00</t>
+  </si>
+  <si>
+    <t>469.00</t>
+  </si>
+  <si>
+    <t>21736.00</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>2914.80</t>
+  </si>
+  <si>
+    <t>731.36</t>
+  </si>
+  <si>
+    <t>1181.75</t>
+  </si>
+  <si>
+    <t>101065.22</t>
+  </si>
+  <si>
+    <t>2674.00</t>
+  </si>
+  <si>
+    <t>1991.69</t>
+  </si>
+  <si>
+    <t>975.00</t>
+  </si>
+  <si>
+    <t>399.00</t>
+  </si>
+  <si>
+    <t>596.03</t>
+  </si>
+  <si>
+    <t>2714.00</t>
+  </si>
+  <si>
+    <t>2867.01</t>
+  </si>
+  <si>
+    <t>9697.00</t>
+  </si>
+  <si>
+    <t>16667.00</t>
+  </si>
+  <si>
+    <t>1796.80</t>
+  </si>
+  <si>
+    <t>465.00</t>
+  </si>
+  <si>
+    <t>960.00</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>11900.00</t>
+  </si>
+  <si>
+    <t>440.00</t>
+  </si>
+  <si>
+    <t>2176.80</t>
+  </si>
+  <si>
+    <t>2239.00</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>1205.00</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>195.33</t>
+  </si>
+  <si>
+    <t>6065.00</t>
+  </si>
+  <si>
+    <t>386.65</t>
+  </si>
+  <si>
+    <t>545.08</t>
+  </si>
+  <si>
+    <t>1309.00</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>608.40</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>116893.20</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>116.16</t>
+  </si>
+  <si>
+    <t>52.15</t>
+  </si>
+  <si>
+    <t>124.14</t>
+  </si>
+  <si>
+    <t>690.00</t>
+  </si>
+  <si>
+    <t>6045.09</t>
+  </si>
+  <si>
+    <t>489.59</t>
+  </si>
+  <si>
+    <t>29250.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>4895.69</t>
+  </si>
+  <si>
+    <t>3861.50</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>875.00</t>
+  </si>
+  <si>
+    <t>517.50</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>220.80</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>436.50</t>
+  </si>
+  <si>
+    <t>1148.05</t>
+  </si>
+  <si>
+    <t>779.00</t>
+  </si>
+  <si>
+    <t>20.67</t>
+  </si>
+  <si>
+    <t>4677.20</t>
+  </si>
+  <si>
+    <t>4895.08</t>
+  </si>
+  <si>
+    <t>568.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>3014.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>2375.00</t>
+  </si>
+  <si>
+    <t>760.00</t>
+  </si>
+  <si>
+    <t>2926.50</t>
+  </si>
+  <si>
+    <t>6080.00</t>
+  </si>
+  <si>
+    <t>5800.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>4300.00</t>
+  </si>
+  <si>
+    <t>5350.00</t>
+  </si>
+  <si>
+    <t>3609.90</t>
+  </si>
+  <si>
+    <t>1332.25</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>635.00</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>4951.00</t>
+  </si>
+  <si>
+    <t>292.68</t>
+  </si>
+  <si>
+    <t>134800.00</t>
+  </si>
+  <si>
+    <t>2535.00</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>132810.00</t>
+  </si>
+  <si>
+    <t>5430.00</t>
+  </si>
+  <si>
+    <t>6806.25</t>
+  </si>
+  <si>
+    <t>384.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>10588.50</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>2550.79</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>9440.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>2363.00</t>
+  </si>
+  <si>
+    <t>2030.00</t>
+  </si>
+  <si>
+    <t>174.59</t>
+  </si>
+  <si>
+    <t>2577.96</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>137.20</t>
+  </si>
+  <si>
+    <t>1468.00</t>
+  </si>
+  <si>
+    <t>2770.00</t>
+  </si>
+  <si>
+    <t>597.00</t>
+  </si>
+  <si>
+    <t>770.00</t>
+  </si>
+  <si>
+    <t>244.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>5128.00</t>
+  </si>
+  <si>
+    <t>54246.92</t>
+  </si>
+  <si>
+    <t>1301.89</t>
+  </si>
+  <si>
+    <t>1464.00</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>4792.00</t>
+  </si>
+  <si>
+    <t>9005.00</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>22.80</t>
+  </si>
+  <si>
+    <t>1956.00</t>
+  </si>
+  <si>
+    <t>2160.00</t>
+  </si>
+  <si>
+    <t>145.25</t>
+  </si>
+  <si>
+    <t>36885.52</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>1085.00</t>
+  </si>
+  <si>
+    <t>825.00</t>
+  </si>
+  <si>
+    <t>1083.60</t>
+  </si>
+  <si>
+    <t>1642.55</t>
+  </si>
+  <si>
+    <t>516.00</t>
+  </si>
+  <si>
+    <t>4264.30</t>
+  </si>
+  <si>
+    <t>87.05</t>
+  </si>
+  <si>
+    <t>3475.88</t>
+  </si>
+  <si>
+    <t>3563.01</t>
+  </si>
+  <si>
+    <t>6851.02</t>
+  </si>
+  <si>
+    <t>58312.00</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>651206.16</t>
+  </si>
+  <si>
+    <t>2080.00</t>
+  </si>
+  <si>
+    <t>148986.00</t>
+  </si>
+  <si>
+    <t>2323.00</t>
+  </si>
+  <si>
+    <t>1390.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>790.00</t>
+  </si>
+  <si>
+    <t>182500.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>83000.00</t>
+  </si>
+  <si>
+    <t>112500.00</t>
+  </si>
+  <si>
+    <t>75000.00</t>
+  </si>
+  <si>
+    <t>223000.00</t>
+  </si>
+  <si>
+    <t>111500.00</t>
+  </si>
+  <si>
+    <t>257911.50</t>
+  </si>
+  <si>
+    <t>6681.19</t>
+  </si>
+  <si>
+    <t>515426.36</t>
+  </si>
+  <si>
+    <t>32530.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>1185.62</t>
+  </si>
+  <si>
+    <t>158.34</t>
+  </si>
+  <si>
+    <t>3214.00</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>6700.00</t>
+  </si>
+  <si>
+    <t>135000.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>645.00</t>
+  </si>
+  <si>
+    <t>145.00</t>
   </si>
 </sst>
 </file>
